--- a/static/upload/patient_test2.xlsx
+++ b/static/upload/patient_test2.xlsx
@@ -972,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>43859</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1090,6 +1090,20 @@
       </c>
       <c r="E7" s="3">
         <v>43863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>11410</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18810010001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43955</v>
       </c>
     </row>
   </sheetData>
